--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PRIVCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PRIVCON_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>1.029713158490776</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.01066661860114224</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>-0.04936550433054371</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.4098942053544007</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.2182753806576183</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.1146227482507003</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.2446234171024673</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.2270258923876982</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.1803712705894753</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.2098567931016708</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>0.5441822662032796</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>-0.1473915729937894</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>-0.02193069269668428</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.05132254265526913</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>-0.0204066150027663</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.007404583424822</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.005994961356654745</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.000836204125326091</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>0.004281117250911056</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.003300379610816255</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>0.0799266023349892</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>0.08276402562058285</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>0.1212923915558002</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>0.1217635345248179</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>0.1345109043708433</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>0.1351860409408802</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>0.1484811682070655</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>0.1487287963278783</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>0.1542953046579707</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>0.1545484868295616</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.1580556399708537</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.1589301276764246</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.1880048679273452</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.1880080408711195</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.1906470690393161</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.1909372110106561</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.1905494244916157</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.1908597402118294</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.2161442892235053</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.2162203212230501</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.2106450990470733</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.2106970422775358</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.2255726688676128</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.2255853093452406</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.2357144345665113</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.2357119655403446</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.243294694894569</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.2432946525076192</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.2604187295442582</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.2604051937572142</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.2642866101566487</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.2624798670902856</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.2619437900075242</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.2552979096741899</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.2316698630690652</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.284844230713184</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.2825134833609007</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.2791545784846608</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.2852048567541819</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.1984223904461457</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.06558621834200831</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.02412755912951225</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PRIVCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PRIVCON_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>1.029713158490776</v>
+        <v>1.76412925655812</v>
       </c>
       <c r="AS2">
-        <v>0.2820838256790996</v>
+        <v>0.5399508454311004</v>
       </c>
       <c r="AT2">
-        <v>0.4211787666311186</v>
+        <v>0.4345404722437392</v>
       </c>
       <c r="AU2">
-        <v>0.2286550815363005</v>
+        <v>0.2833261624959177</v>
       </c>
       <c r="AV2">
-        <v>0.5490319412376854</v>
+        <v>0.3897250556640635</v>
       </c>
       <c r="AW2">
-        <v>0.4381157400618436</v>
+        <v>0.3707353136892355</v>
       </c>
       <c r="AX2">
-        <v>0.09985345063009196</v>
+        <v>0.4630840635554818</v>
       </c>
       <c r="AY2">
-        <v>0.3064694956799474</v>
+        <v>0.2509968438192447</v>
       </c>
       <c r="AZ2">
-        <v>0.08651757380516481</v>
+        <v>0.06297564954347848</v>
       </c>
       <c r="BA2">
-        <v>0.336670963302719</v>
+        <v>0.1106596286637345</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.01066661860114224</v>
+        <v>0.1130034632056707</v>
       </c>
       <c r="AS3">
-        <v>0.1768164119813352</v>
+        <v>0.1472571816580443</v>
       </c>
       <c r="AT3">
-        <v>0.112909106075748</v>
+        <v>0.2788461506952404</v>
       </c>
       <c r="AU3">
-        <v>0.2256554198611863</v>
+        <v>0.1471233223760379</v>
       </c>
       <c r="AV3">
-        <v>0.1072662001540579</v>
+        <v>0.3648017249805879</v>
       </c>
       <c r="AW3">
-        <v>0.1370748789483816</v>
+        <v>0.3054102747409474</v>
       </c>
       <c r="AX3">
-        <v>0.1920029590800404</v>
+        <v>0.03167358369192355</v>
       </c>
       <c r="AY3">
-        <v>0.2001369838950839</v>
+        <v>0.2345008246790856</v>
       </c>
       <c r="AZ3">
-        <v>0.2657515798556054</v>
+        <v>0.1608572430577876</v>
       </c>
       <c r="BA3">
-        <v>0.2002239613275362</v>
+        <v>0.3169517764463556</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>-0.04936550433054371</v>
+        <v>-0.3961183678291557</v>
       </c>
       <c r="AS4">
-        <v>0.1922801461665575</v>
+        <v>0.126653134719081</v>
       </c>
       <c r="AT4">
-        <v>0.1313435216829141</v>
+        <v>0.05401259618283419</v>
       </c>
       <c r="AU4">
-        <v>0.1718112672352901</v>
+        <v>0.1924870907392452</v>
       </c>
       <c r="AV4">
-        <v>0.08317933060364521</v>
+        <v>0.0310161116143392</v>
       </c>
       <c r="AW4">
-        <v>0.1359505872440954</v>
+        <v>0.08166645222529803</v>
       </c>
       <c r="AX4">
-        <v>0.2425442913845122</v>
+        <v>0.163530232878224</v>
       </c>
       <c r="AY4">
-        <v>0.1623010194982296</v>
+        <v>0.1702484414521719</v>
       </c>
       <c r="AZ4">
-        <v>0.2285291039813763</v>
+        <v>0.2975865880158619</v>
       </c>
       <c r="BA4">
-        <v>0.1381013420461794</v>
+        <v>0.1938094709021038</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.4098942053544007</v>
+        <v>0.5752347993852363</v>
       </c>
       <c r="AS5">
-        <v>0.2301097104498222</v>
+        <v>0.3048934020328104</v>
       </c>
       <c r="AT5">
-        <v>0.2541521044430011</v>
+        <v>0.2278150941332517</v>
       </c>
       <c r="AU5">
-        <v>0.1989466449352248</v>
+        <v>0.2291980412881563</v>
       </c>
       <c r="AV5">
-        <v>0.2846497132527567</v>
+        <v>0.2019843485561403</v>
       </c>
       <c r="AW5">
-        <v>0.2661740776896998</v>
+        <v>0.2172312949140331</v>
       </c>
       <c r="AX5">
-        <v>0.1786429476461824</v>
+        <v>0.2860572488026675</v>
       </c>
       <c r="AY5">
-        <v>0.2262580930266894</v>
+        <v>0.2082101794294024</v>
       </c>
       <c r="AZ5">
-        <v>0.1692620881573219</v>
+        <v>0.1897706618933908</v>
       </c>
       <c r="BA5">
-        <v>0.2267785811933831</v>
+        <v>0.1641591173962634</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.2182753806576183</v>
+        <v>0.3258870944551295</v>
       </c>
       <c r="AS6">
-        <v>0.2052087399216708</v>
+        <v>0.2272790477159067</v>
       </c>
       <c r="AT6">
-        <v>0.1877178461566333</v>
+        <v>0.2409250148402042</v>
       </c>
       <c r="AU6">
-        <v>0.2090582931471475</v>
+        <v>0.1921013976434808</v>
       </c>
       <c r="AV6">
-        <v>0.1983473431356831</v>
+        <v>0.2633289307305921</v>
       </c>
       <c r="AW6">
-        <v>0.2041376809297586</v>
+        <v>0.2484297436516124</v>
       </c>
       <c r="AX6">
-        <v>0.1875439971341977</v>
+        <v>0.1705063273933386</v>
       </c>
       <c r="AY6">
-        <v>0.2118331014489727</v>
+        <v>0.2176386245341607</v>
       </c>
       <c r="AZ6">
-        <v>0.2137415578881774</v>
+        <v>0.1827044047378323</v>
       </c>
       <c r="BA6">
-        <v>0.2108575901384858</v>
+        <v>0.2313986374421428</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.1146227482507003</v>
+        <v>0.02142791746555478</v>
       </c>
       <c r="AS7">
-        <v>0.2009450547751903</v>
+        <v>0.1885538305804187</v>
       </c>
       <c r="AT7">
-        <v>0.1669721761895099</v>
+        <v>0.1604210289119662</v>
       </c>
       <c r="AU7">
-        <v>0.1925441991305989</v>
+        <v>0.1941422479441673</v>
       </c>
       <c r="AV7">
-        <v>0.1531398644445628</v>
+        <v>0.1604094159505245</v>
       </c>
       <c r="AW7">
-        <v>0.17782330664223</v>
+        <v>0.1750993325696475</v>
       </c>
       <c r="AX7">
-        <v>0.2107751025451584</v>
+        <v>0.1731689205517123</v>
       </c>
       <c r="AY7">
-        <v>0.1912218237194122</v>
+        <v>0.1967673156296909</v>
       </c>
       <c r="AZ7">
-        <v>0.2178911112571207</v>
+        <v>0.2325103717147501</v>
       </c>
       <c r="BA7">
-        <v>0.1803212950760537</v>
+        <v>0.2118691770813338</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.2446234171024673</v>
+        <v>0.2788178776320681</v>
       </c>
       <c r="AS8">
-        <v>0.2137148232871889</v>
+        <v>0.2405881092325505</v>
       </c>
       <c r="AT8">
-        <v>0.2052259373303775</v>
+        <v>0.1932369166610602</v>
       </c>
       <c r="AU8">
-        <v>0.1961262831256942</v>
+        <v>0.2090911915923414</v>
       </c>
       <c r="AV8">
-        <v>0.2119298411706985</v>
+        <v>0.1834632496723607</v>
       </c>
       <c r="AW8">
-        <v>0.2171812374110225</v>
+        <v>0.1968867944839816</v>
       </c>
       <c r="AX8">
-        <v>0.1958009417694521</v>
+        <v>0.2216500942860387</v>
       </c>
       <c r="AY8">
-        <v>0.207332057253116</v>
+        <v>0.2027326513843101</v>
       </c>
       <c r="AZ8">
-        <v>0.1967549733373755</v>
+        <v>0.2116268402751624</v>
       </c>
       <c r="BA8">
-        <v>0.2018770094865156</v>
+        <v>0.1923081431760958</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.2270258923876982</v>
+        <v>0.287061100254023</v>
       </c>
       <c r="AS9">
-        <v>0.2093893530264569</v>
+        <v>0.2319444312974616</v>
       </c>
       <c r="AT9">
-        <v>0.1958398527080348</v>
+        <v>0.2119682930236409</v>
       </c>
       <c r="AU9">
-        <v>0.2015030330676379</v>
+        <v>0.2010405131501988</v>
       </c>
       <c r="AV9">
-        <v>0.2031594381490401</v>
+        <v>0.2166199461931992</v>
       </c>
       <c r="AW9">
-        <v>0.2096211885928255</v>
+        <v>0.2179856765796604</v>
       </c>
       <c r="AX9">
-        <v>0.1929859359145734</v>
+        <v>0.1972491469778407</v>
       </c>
       <c r="AY9">
-        <v>0.2084697599639762</v>
+        <v>0.2088528276636961</v>
       </c>
       <c r="AZ9">
-        <v>0.2051183364407668</v>
+        <v>0.2002187003156194</v>
       </c>
       <c r="BA9">
-        <v>0.2046560310086787</v>
+        <v>0.2101075427112297</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.1803712705894753</v>
+        <v>0.1702356410866285</v>
       </c>
       <c r="AS10">
-        <v>0.2059819537446382</v>
+        <v>0.2138425476944285</v>
       </c>
       <c r="AT10">
-        <v>0.1839854312649927</v>
+        <v>0.189010845172273</v>
       </c>
       <c r="AU10">
-        <v>0.1973828240740746</v>
+        <v>0.1984855285227199</v>
       </c>
       <c r="AV10">
-        <v>0.1820933901795981</v>
+        <v>0.1907941927020416</v>
       </c>
       <c r="AW10">
-        <v>0.196296009198672</v>
+        <v>0.1984758944090209</v>
       </c>
       <c r="AX10">
-        <v>0.200780556308386</v>
+        <v>0.1880763918758455</v>
       </c>
       <c r="AY10">
-        <v>0.2009864727191344</v>
+        <v>0.20334520985156</v>
       </c>
       <c r="AZ10">
-        <v>0.2101991697450222</v>
+        <v>0.2146885780795116</v>
       </c>
       <c r="BA10">
-        <v>0.1940329594505532</v>
+        <v>0.2099786504021938</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.2098567931016708</v>
+        <v>0.2234504438430197</v>
       </c>
       <c r="AS11">
-        <v>0.2094865339171294</v>
+        <v>0.2263248524432178</v>
       </c>
       <c r="AT11">
-        <v>0.193645434267602</v>
+        <v>0.1919641207080703</v>
       </c>
       <c r="AU11">
-        <v>0.1970501868248283</v>
+        <v>0.2031684985119763</v>
       </c>
       <c r="AV11">
-        <v>0.1959704059991869</v>
+        <v>0.1889460399904081</v>
       </c>
       <c r="AW11">
-        <v>0.2059502227371886</v>
+        <v>0.1987639860684316</v>
       </c>
       <c r="AX11">
-        <v>0.1982531115420439</v>
+        <v>0.2029836654012216</v>
       </c>
       <c r="AY11">
-        <v>0.2040905963699726</v>
+        <v>0.2033556940569484</v>
       </c>
       <c r="AZ11">
-        <v>0.2041599017973981</v>
+        <v>0.2126485318757679</v>
       </c>
       <c r="BA11">
-        <v>0.1979488553154932</v>
+        <v>0.202379707973525</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>-0.3517639154306679</v>
       </c>
       <c r="AG53">
-        <v>3.41009139335728</v>
+        <v>-20.92623681081761</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>0.3224774894259023</v>
       </c>
       <c r="AG54">
-        <v>-3.962937356575955</v>
+        <v>-43.97489414509727</v>
       </c>
       <c r="AH54">
-        <v>-4.123883263261677</v>
+        <v>-0.7414213527259301</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.1023901082541362</v>
       </c>
       <c r="AG55">
-        <v>-0.3133291058607333</v>
+        <v>-90.32508559561525</v>
       </c>
       <c r="AH55">
-        <v>3.031715264710542</v>
+        <v>-4.167662874822406</v>
       </c>
       <c r="AI55">
-        <v>2.996123589910866</v>
+        <v>-0.7462594237692133</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.2291310508888415</v>
       </c>
       <c r="AG56">
-        <v>2.144678686288879</v>
+        <v>-185.6544924864306</v>
       </c>
       <c r="AH56">
-        <v>0.4879255975437429</v>
+        <v>3.012099485787978</v>
       </c>
       <c r="AI56">
-        <v>-0.7301973886073956</v>
+        <v>1.703738961729053</v>
       </c>
       <c r="AJ56">
-        <v>0.7008842332427712</v>
+        <v>4.881067606865664</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.1811151017797205</v>
       </c>
       <c r="AG57">
-        <v>-0.1616215072075291</v>
+        <v>-380.9548580087869</v>
       </c>
       <c r="AH57">
-        <v>-1.319640700320215</v>
+        <v>0.5103538685638893</v>
       </c>
       <c r="AI57">
-        <v>-0.3512209197716596</v>
+        <v>-0.5360549269342505</v>
       </c>
       <c r="AJ57">
-        <v>-1.851282002186193</v>
+        <v>-0.1376947534005328</v>
       </c>
       <c r="AK57">
-        <v>-5.180335362049175</v>
+        <v>0.7388159322130159</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.205743587435231</v>
       </c>
       <c r="AG58">
-        <v>-0.7026728394568804</v>
+        <v>-781.334969188795</v>
       </c>
       <c r="AH58">
-        <v>0.8588461216471781</v>
+        <v>-1.333953392337865</v>
       </c>
       <c r="AI58">
-        <v>0.7649332308087609</v>
+        <v>0.1339848920173001</v>
       </c>
       <c r="AJ58">
-        <v>1.041051684172394</v>
+        <v>-2.097782898955798</v>
       </c>
       <c r="AK58">
-        <v>-0.1648001361648772</v>
+        <v>-1.723433088099403</v>
       </c>
       <c r="AL58">
-        <v>-2.026420678526916</v>
+        <v>-5.414022278696728</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.1956338697409992</v>
       </c>
       <c r="AG59">
-        <v>0.4961200851280996</v>
+        <v>-1602.047850069443</v>
       </c>
       <c r="AH59">
-        <v>0.4455752131764999</v>
+        <v>0.8431599591589952</v>
       </c>
       <c r="AI59">
-        <v>-0.07366226830881706</v>
+        <v>0.3649411424677166</v>
       </c>
       <c r="AJ59">
-        <v>0.503912206903917</v>
+        <v>1.710154200302567</v>
       </c>
       <c r="AK59">
-        <v>3.374329151395282</v>
+        <v>0.9425731398495919</v>
       </c>
       <c r="AL59">
-        <v>1.99197149627105</v>
+        <v>0.03512267094674248</v>
       </c>
       <c r="AM59">
-        <v>1.094106577185633</v>
+        <v>-1.639012603584169</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.2005140239460909</v>
       </c>
       <c r="AG60">
-        <v>0.4386286236853801</v>
+        <v>-3284.407181249334</v>
       </c>
       <c r="AH60">
-        <v>-0.3092844470244732</v>
+        <v>0.4499839463846311</v>
       </c>
       <c r="AI60">
-        <v>0.04731943523189031</v>
+        <v>0.03169952958721822</v>
       </c>
       <c r="AJ60">
-        <v>-0.5585973037394223</v>
+        <v>0.2516797871000565</v>
       </c>
       <c r="AK60">
-        <v>-1.506041519685225</v>
+        <v>0.4886058366091834</v>
       </c>
       <c r="AL60">
-        <v>0.4638170632468088</v>
+        <v>3.457673503936866</v>
       </c>
       <c r="AM60">
-        <v>-0.262404023436389</v>
+        <v>2.15586607338874</v>
       </c>
       <c r="AN60">
-        <v>-0.1913779152861339</v>
+        <v>1.19895967144196</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.1984223904461457</v>
       </c>
       <c r="AG61">
-        <v>-0.09794763608650933</v>
+        <v>-6733.022553011355</v>
       </c>
       <c r="AH61">
-        <v>0.3058433075581136</v>
+        <v>-0.3157189814141452</v>
       </c>
       <c r="AI61">
-        <v>0.276092118061714</v>
+        <v>0.1696263274091858</v>
       </c>
       <c r="AJ61">
-        <v>0.3474546143954192</v>
+        <v>-0.7403054455581339</v>
       </c>
       <c r="AK61">
-        <v>-0.6256015083036957</v>
+        <v>-0.4927478292434315</v>
       </c>
       <c r="AL61">
-        <v>-0.7421340545266046</v>
+        <v>-1.665086109937346</v>
       </c>
       <c r="AM61">
-        <v>0.1219819432690573</v>
+        <v>0.1546013360490828</v>
       </c>
       <c r="AN61">
-        <v>-0.1192954569587127</v>
+        <v>-0.02466932316478762</v>
       </c>
       <c r="AO61">
-        <v>0.218166520552468</v>
+        <v>-0.2532906159908289</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.06558621834200831</v>
+        <v>-13802.23477346393</v>
       </c>
       <c r="AH62">
-        <v>0.300125505920554</v>
+        <v>0.2952792081524285</v>
       </c>
       <c r="AI62">
-        <v>0.08847253122019924</v>
+        <v>0.180575795478424</v>
       </c>
       <c r="AJ62">
-        <v>0.3055965130539784</v>
+        <v>0.6383413140426146</v>
       </c>
       <c r="AK62">
-        <v>1.588765452824022</v>
+        <v>0.3153351585976681</v>
       </c>
       <c r="AL62">
-        <v>0.5969296559486262</v>
+        <v>-0.6027202943477021</v>
       </c>
       <c r="AM62">
-        <v>0.555420901956083</v>
+        <v>-0.7024834817425425</v>
       </c>
       <c r="AN62">
-        <v>0.6550499860064738</v>
+        <v>-0.04297327622602742</v>
       </c>
       <c r="AO62">
-        <v>0.4726703872743158</v>
+        <v>0.2723296443554514</v>
       </c>
       <c r="AP62">
-        <v>0.3090899674425829</v>
+        <v>-0.3817602796742097</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.02412755912951225</v>
+        <v>0.2975104364363221</v>
       </c>
       <c r="AI63">
-        <v>0.1231512868484819</v>
+        <v>0.1343844310580028</v>
       </c>
       <c r="AJ63">
-        <v>-0.1043257376255182</v>
+        <v>0.2535100954911703</v>
       </c>
       <c r="AK63">
-        <v>-0.201689458727334</v>
+        <v>0.2884806990115797</v>
       </c>
       <c r="AL63">
-        <v>0.5250698493954628</v>
+        <v>1.694416857714701</v>
       </c>
       <c r="AM63">
-        <v>0.1536985847747047</v>
+        <v>0.7301306731060018</v>
       </c>
       <c r="AN63">
-        <v>0.2387000358310354</v>
+        <v>0.5366926974345472</v>
       </c>
       <c r="AO63">
-        <v>0.1822478174976819</v>
+        <v>0.4960542027036769</v>
       </c>
       <c r="AP63">
-        <v>0.6014940945699503</v>
+        <v>0.2649202440956618</v>
       </c>
       <c r="AQ63">
-        <v>1.248698792741732</v>
+        <v>0.6792454257158682</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PRIVCON_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_PRIVCON_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>0.5441822662032796</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>-0.1473915729937894</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>-0.2901837905312393</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0.2481128735626885</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>-0.141479438510763</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>0.2235766669353413</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>-0.148615619474635</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.1717141762377538</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.05951637098021877</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.151032166991611</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.07021436205092373</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>0.1781493073854169</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>-0.1693935401736124</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.2459153413254775</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>-5.414022278696728</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>-1.639012603584169</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>1.19895967144196</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>-0.2532906159908289</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>-0.3817602796742097</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>0.6792454257158682</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>1.76412925655812</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.5399508454311004</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0.4345404722437392</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0.2833261624959177</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.3897250556640635</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.3707353136892355</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.4630840635554818</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>0.2509968438192447</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.06297564954347848</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.1106596286637345</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.3169517764463556</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.4382843088295769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.1938094709021038</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.273497985379609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.1641591173962634</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.0539306827327628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.2313986374421428</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.2306356627296811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.2118691770813338</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.2402234230226422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.1923081431760958</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.1594459847733843</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.2101075427112297</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.1941922693254655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.2099786504021938</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.2122850466304503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.202379707973525</v>
+      </c>
+      <c r="AW72">
+        <v>0.1886006359601506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.1922018276915154</v>
       </c>
     </row>
   </sheetData>
